--- a/99_研修資料/第三回/C#とJAVAの違い.xlsx
+++ b/99_研修資料/第三回/C#とJAVAの違い.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="171">
   <si>
     <t xml:space="preserve">  }</t>
   </si>
@@ -73,14 +73,6 @@
     <rPh sb="4" eb="5">
       <t>サ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>②Stringじゃなくてstring</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※using System;を宣言していればStringと書いてもエラーにはなりませんが、</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -176,10 +168,6 @@
     <t xml:space="preserve">            }</t>
   </si>
   <si>
-    <t>string name = ghetName();</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>⑤stringの比較</t>
     <rPh sb="8" eb="10">
       <t>ヒカク</t>
@@ -187,12 +175,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">        String str1 = "test";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        String str2 = new String(str1);</t>
-  </si>
-  <si>
     <t xml:space="preserve">        string str1 = "test";</t>
   </si>
   <si>
@@ -205,18 +187,6 @@
     <t xml:space="preserve">    public void doSample() {</t>
   </si>
   <si>
-    <t xml:space="preserve">        var var1 = "123";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        var var2 = 123;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Console.WriteLine(var1 == var2); //コンパイルエラーになる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Console.WriteLine(var1.Equals(var2)); //falseになる</t>
-  </si>
-  <si>
     <t>"=="だとコンパイルエラーが発生するのですが、"equals()"の場合はコンパイルエラーは発生せずに実行までできてしまいます</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -230,22 +200,6 @@
     <t xml:space="preserve">            int y = 20;</t>
   </si>
   <si>
-    <t xml:space="preserve">            (int num1,int num2) t = getNumber();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Console.WriteLine(t.num1);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Console.WriteLine(t.num2);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            return (x*2, y*10);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            return values</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">            int [] values = {x*2; , y*10};</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -258,23 +212,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">            System.out.println(values(0));</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            System.out.println(values(1));</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>public class Sample{</t>
   </si>
   <si>
     <t xml:space="preserve">        Language l = new Language();</t>
   </si>
   <si>
-    <t xml:space="preserve">        l.setExperience(5);</t>
-  </si>
-  <si>
     <t xml:space="preserve">        l.setName("java");</t>
   </si>
   <si>
@@ -326,22 +269,10 @@
     <t xml:space="preserve">        public void doSample() { </t>
   </si>
   <si>
-    <t xml:space="preserve">            var l = new Language();</t>
-  </si>
-  <si>
     <t xml:space="preserve">            // 直接値を設定するような書き方ができる</t>
   </si>
   <si>
-    <t xml:space="preserve">            l.Experience = 0;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            l.Name = "C#";</t>
-  </si>
-  <si>
     <t xml:space="preserve">    class Language {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        private int _experience;</t>
   </si>
   <si>
     <t xml:space="preserve">        private string _name;</t>
@@ -518,58 +449,6 @@
   </si>
   <si>
     <t>(型が違うと必ずfalseになりますが)型が異なるものの比較は通常おかしい処理になりますのでバグを実装時に検知できるという観点から"=="が推奨されている</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑦.プロパティ（getter,setter)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            Console.WriteLine(string.Format("私は{0}の業務を{1}年経験しました。", </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>l.Name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> l.Experience</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>));</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -674,33 +553,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">        private</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (int num1,int num2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> getNumber(int x, int y) {</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">        private </t>
     </r>
     <r>
@@ -749,7 +601,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> string</t>
+      <t xml:space="preserve">var </t>
     </r>
     <r>
       <rPr>
@@ -759,7 +611,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> name = "hoge"; // stringのsが小文字</t>
+      <t>str2 = "test"; //暗黙的な型指定</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -783,7 +635,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>name = "hoge";　// StringのSが大文字</t>
+      <t>str = "test"; //明示的な型指定</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -797,7 +649,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">var </t>
+      <t>Human</t>
     </r>
     <r>
       <rPr>
@@ -807,11 +659,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>str2 = "test"; //暗黙的な型指定</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> human = new Human(); //明示的な型指定</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>引数を</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -821,7 +676,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">var </t>
+      <t>参照渡し</t>
     </r>
     <r>
       <rPr>
@@ -831,21 +686,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>human2 = new Human(); //暗黙的な型指定</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t>で定義するために使う javaの場合、int型などの値型変数は引数として渡し際には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">String </t>
+      <t>値渡し</t>
     </r>
     <r>
       <rPr>
@@ -855,11 +707,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>str = "test"; //明示的な型指定</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
+      <t>になり、 呼ぼ出し先で変更されても呼び出し元には影響しない。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> C#でも基本的には同じだが、引数にrefキーワードをつけることで値型でも</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -869,7 +724,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Human</t>
+      <t>参照渡し</t>
     </r>
     <r>
       <rPr>
@@ -879,13 +734,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> human = new Human(); //明示的な型指定</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>Console.WriteLine(name</t>
+      <t>することが可能になる。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>これがref関数を使うことによる値型の</t>
     </r>
     <r>
       <rPr>
@@ -896,7 +751,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>?.</t>
+      <t>参照渡し</t>
     </r>
     <r>
       <rPr>
@@ -906,13 +761,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ToLower());</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        Console.WriteLine(str1</t>
+      <t>です。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これは参照渡しには自分が意図しないところで変数の内容が書き換えられる危険性があるため、使う側にここでは参照渡しをしていると意識させるためにコンパイラがチェックしているため。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>refキーワードは呼ぼ出し先と呼び出し元の両方に記述する必要があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                Console.WriteLine(num);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>変数numを</t>
     </r>
     <r>
       <rPr>
@@ -923,7 +790,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> == </t>
+      <t>参照渡し</t>
     </r>
     <r>
       <rPr>
@@ -933,13 +800,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>str2); //trueになる</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        System.out.println(str1</t>
+      <t>でgetNumberメソッドに渡して初期化するコードです。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        private void getNumber(</t>
     </r>
     <r>
       <rPr>
@@ -950,7 +817,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> == </t>
+      <t>ref</t>
     </r>
     <r>
       <rPr>
@@ -960,13 +827,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>str2); //falseになる</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>引数を</t>
+      <t xml:space="preserve"> int num) {</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            getNumber(</t>
     </r>
     <r>
       <rPr>
@@ -977,7 +844,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>参照渡し</t>
+      <t>ref</t>
     </r>
     <r>
       <rPr>
@@ -987,18 +854,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>で定義するために使う javaの場合、int型などの値型変数は引数として渡し際には</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
+      <t xml:space="preserve"> num);</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        private void getNumber(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>値渡し</t>
+      <t>out</t>
     </r>
     <r>
       <rPr>
@@ -1008,14 +881,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>になり、 呼ぼ出し先で変更されても呼び出し元には影響しない。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> C#でも基本的には同じだが、引数にrefキーワードをつけることで値型でも</t>
-    </r>
+      <t xml:space="preserve"> int num) {</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちなみに、outキーワードで指定していてもgetNumberメソッドの中で引数を初期化しないとコンパイルエラーになります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num2' はコントロールが現在のメソッドを抜ける前に割り当てられる必要があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②Stringじゃなくてstring</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※using System;を宣言していればStringと書いてもエラーにはなりませんが、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1025,7 +911,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>参照渡し</t>
+      <t xml:space="preserve">String </t>
     </r>
     <r>
       <rPr>
@@ -1035,14 +921,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>することが可能になる。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>これがref関数を使うことによる値型の</t>
-    </r>
+      <t>name = "hoge";　// StringのSが大文字</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1052,7 +935,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>参照渡し</t>
+      <t xml:space="preserve"> string</t>
     </r>
     <r>
       <rPr>
@@ -1062,26 +945,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>です。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>これは参照渡しには自分が意図しないところで変数の内容が書き換えられる危険性があるため、使う側にここでは参照渡しをしていると意識させるためにコンパイラがチェックしているため。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>refキーワードは呼ぼ出し先と呼び出し元の両方に記述する必要があります。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                Console.WriteLine(num);</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            Console.WriteLine(add1(</t>
-    </r>
+      <t xml:space="preserve"> name = "hoge"; // stringのsが小文字</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数定義の違いについて</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1091,7 +972,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ref</t>
+      <t xml:space="preserve">var </t>
     </r>
     <r>
       <rPr>
@@ -1101,13 +982,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> num));</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        private int add1(</t>
+      <t>human2 = new Human(); //暗黙的な型指定</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Console.WriteLine(name</t>
     </r>
     <r>
       <rPr>
@@ -1118,7 +999,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ref</t>
+      <t>?.</t>
     </r>
     <r>
       <rPr>
@@ -1128,13 +1009,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> int num) {</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>変数numを</t>
+      <t>ToLower());</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string name = ghetName();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        String str1 = "test";</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        String str2 = new String(str1);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        System.out.println(str1</t>
     </r>
     <r>
       <rPr>
@@ -1145,7 +1038,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>参照渡し</t>
+      <t xml:space="preserve"> == </t>
     </r>
     <r>
       <rPr>
@@ -1155,13 +1048,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>でgetNumberメソッドに渡して初期化するコードです。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        private void getNumber(</t>
+      <t>str2); //falseになる</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Console.WriteLine(str1</t>
     </r>
     <r>
       <rPr>
@@ -1172,7 +1065,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ref</t>
+      <t xml:space="preserve"> == </t>
     </r>
     <r>
       <rPr>
@@ -1182,13 +1075,57 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> int num) {</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            getNumber(</t>
+      <t>str2); //trueになる</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        var var2 = 123;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Console.WriteLine(var1 == var2); //コンパイルエラーになる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Console.WriteLine(var1.Equals(var2)); //falseになる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        var var1 = "123";</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            return values</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            System.out.println(values(0));</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            System.out.println(values(1));</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            return (x*2, y*10);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            Console.WriteLine(t.num1);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            Console.WriteLine(t.num2);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            (int num1,int num2) t = getNumber();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        private</t>
     </r>
     <r>
       <rPr>
@@ -1199,7 +1136,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ref</t>
+      <t xml:space="preserve"> (int num1,int num2)</t>
     </r>
     <r>
       <rPr>
@@ -1209,24 +1146,44 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> num);</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        private void getNumber(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> getNumber(int x, int y) {</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦.プロパティ（getter,setter)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            l.Name = "C#";</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            var l = new Language();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        l.setExperience(5);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            l.Experience = 0;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            Console.WriteLine(string.Format("私は{0}の業務を{1}年経験しました。", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>out</t>
+      <t>l.Name</t>
     </r>
     <r>
       <rPr>
@@ -1236,23 +1193,106 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> int num) {</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            getNumber(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> l.Experience</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>));</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        private int _experience;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            Console.WriteLine(add1(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> num));</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            int num = 1;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        private int add1(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> int num) {</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            getNumber(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>out</t>
     </r>
     <r>
@@ -1268,11 +1308,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ちなみに、outキーワードで指定していてもgetNumberメソッドの中で引数を初期化しないとコンパイルエラーになります。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>num2' はコントロールが現在のメソッドを抜ける前に割り当てられる必要があります。</t>
+    <t>refは最初、outは出ていくときにチェックする</t>
+    <rPh sb="4" eb="6">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>デ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1280,7 +1322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1337,6 +1379,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1519,7 +1570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1555,6 +1606,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1859,9 +1911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:S266"/>
+  <dimension ref="B3:S268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B268" sqref="B268"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2050,7 +2104,7 @@
     <row r="17" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:16" s="25" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="25" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
@@ -2063,7 +2117,7 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="29" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2071,7 +2125,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
       <c r="J21" s="29" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -2097,18 +2151,23 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="35" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:16" s="25" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B29" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
@@ -2121,7 +2180,7 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="29" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2129,7 +2188,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="4"/>
       <c r="J32" s="29" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2140,7 +2199,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="30" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -2148,7 +2207,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="7"/>
       <c r="J33" s="30" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
@@ -2189,33 +2248,33 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="2:16" s="25" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B43" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
@@ -2243,7 +2302,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -2251,7 +2310,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="7"/>
       <c r="J47" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
@@ -2262,7 +2321,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -2270,7 +2329,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="7"/>
       <c r="J48" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
@@ -2287,7 +2346,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="7"/>
       <c r="J49" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
@@ -2304,7 +2363,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="7"/>
       <c r="J50" s="28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
@@ -2330,13 +2389,13 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="2:16" s="25" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B55" s="25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
@@ -2364,7 +2423,7 @@
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B59" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -2372,7 +2431,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="7"/>
       <c r="J59" s="5" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
@@ -2383,7 +2442,7 @@
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B60" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -2391,7 +2450,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="7"/>
       <c r="J60" s="5" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
@@ -2402,7 +2461,7 @@
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B61" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2425,7 +2484,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="7"/>
       <c r="J62" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
@@ -2451,17 +2510,17 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2472,7 +2531,7 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="5" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2483,7 +2542,7 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="5" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -2503,7 +2562,7 @@
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" s="5" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -2514,7 +2573,7 @@
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="5" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -2534,38 +2593,38 @@
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="2:16" s="25" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B81" s="25" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="6" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="2:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
@@ -2578,7 +2637,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B87" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -2586,7 +2645,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="4"/>
       <c r="J87" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -2612,7 +2671,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B89" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2620,7 +2679,7 @@
       <c r="F89" s="6"/>
       <c r="G89" s="7"/>
       <c r="J89" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
@@ -2631,7 +2690,7 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -2639,7 +2698,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="7"/>
       <c r="J90" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
@@ -2650,7 +2709,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B91" s="28" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2658,7 +2717,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="7"/>
       <c r="J91" s="28" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
@@ -2669,7 +2728,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B92" s="5" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2677,7 +2736,7 @@
       <c r="F92" s="6"/>
       <c r="G92" s="7"/>
       <c r="J92" s="5" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
@@ -2688,7 +2747,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B93" s="5" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2696,7 +2755,7 @@
       <c r="F93" s="6"/>
       <c r="G93" s="7"/>
       <c r="J93" s="5" t="s">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
@@ -2741,7 +2800,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B96" s="5" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -2749,7 +2808,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="7"/>
       <c r="J96" s="5" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
@@ -2766,7 +2825,7 @@
       <c r="F97" s="6"/>
       <c r="G97" s="7"/>
       <c r="J97" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
@@ -2777,7 +2836,7 @@
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B98" s="28" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -2785,7 +2844,7 @@
       <c r="F98" s="6"/>
       <c r="G98" s="7"/>
       <c r="J98" s="28" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
@@ -2845,37 +2904,37 @@
     </row>
     <row r="105" spans="2:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="2:19" x14ac:dyDescent="0.2">
@@ -2903,7 +2962,7 @@
     </row>
     <row r="117" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B117" s="5" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -2911,7 +2970,7 @@
       <c r="F117" s="6"/>
       <c r="G117" s="7"/>
       <c r="M117" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="N117" s="6"/>
       <c r="O117" s="6"/>
@@ -2937,7 +2996,7 @@
     </row>
     <row r="119" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B119" s="5" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -2945,7 +3004,7 @@
       <c r="F119" s="6"/>
       <c r="G119" s="7"/>
       <c r="M119" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N119" s="6"/>
       <c r="O119" s="6"/>
@@ -2956,7 +3015,7 @@
     </row>
     <row r="120" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B120" s="5" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -2973,7 +3032,7 @@
     </row>
     <row r="121" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B121" s="5" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -2981,7 +3040,7 @@
       <c r="F121" s="6"/>
       <c r="G121" s="7"/>
       <c r="M121" s="5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N121" s="6"/>
       <c r="O121" s="6"/>
@@ -2992,7 +3051,7 @@
     </row>
     <row r="122" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B122" s="5" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -3000,7 +3059,7 @@
       <c r="F122" s="6"/>
       <c r="G122" s="7"/>
       <c r="M122" s="5" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="N122" s="6"/>
       <c r="O122" s="6"/>
@@ -3011,7 +3070,7 @@
     </row>
     <row r="123" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B123" s="5" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -3019,7 +3078,7 @@
       <c r="F123" s="6"/>
       <c r="G123" s="7"/>
       <c r="M123" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="N123" s="6"/>
       <c r="O123" s="6"/>
@@ -3045,7 +3104,7 @@
     </row>
     <row r="125" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B125" s="5" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3053,7 +3112,7 @@
       <c r="F125" s="6"/>
       <c r="G125" s="7"/>
       <c r="M125" s="5" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="N125" s="6"/>
       <c r="O125" s="6"/>
@@ -3072,7 +3131,7 @@
       <c r="F126" s="6"/>
       <c r="G126" s="7"/>
       <c r="M126" s="5" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="N126" s="6"/>
       <c r="O126" s="6"/>
@@ -3083,7 +3142,7 @@
     </row>
     <row r="127" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B127" s="5" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -3091,7 +3150,7 @@
       <c r="F127" s="6"/>
       <c r="G127" s="7"/>
       <c r="I127" s="26" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="M127" s="5" t="s">
         <v>1</v>
@@ -3105,7 +3164,7 @@
     </row>
     <row r="128" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B128" s="5" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -3113,7 +3172,7 @@
       <c r="F128" s="6"/>
       <c r="G128" s="7"/>
       <c r="I128" s="27" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="M128" s="5"/>
       <c r="N128" s="6"/>
@@ -3131,7 +3190,7 @@
       <c r="F129" s="6"/>
       <c r="G129" s="7"/>
       <c r="M129" s="5" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="N129" s="6"/>
       <c r="O129" s="6"/>
@@ -3142,7 +3201,7 @@
     </row>
     <row r="130" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B130" s="5" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -3159,7 +3218,7 @@
     </row>
     <row r="131" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B131" s="5" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -3167,7 +3226,7 @@
       <c r="F131" s="6"/>
       <c r="G131" s="7"/>
       <c r="M131" s="5" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="N131" s="6"/>
       <c r="O131" s="6"/>
@@ -3184,7 +3243,7 @@
       <c r="F132" s="6"/>
       <c r="G132" s="7"/>
       <c r="M132" s="5" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="N132" s="6"/>
       <c r="O132" s="6"/>
@@ -3195,7 +3254,7 @@
     </row>
     <row r="133" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B133" s="5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -3212,7 +3271,7 @@
     </row>
     <row r="134" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B134" s="5" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -3220,7 +3279,7 @@
       <c r="F134" s="6"/>
       <c r="G134" s="7"/>
       <c r="M134" s="13" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="N134" s="14"/>
       <c r="O134" s="14"/>
@@ -3231,7 +3290,7 @@
     </row>
     <row r="135" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B135" s="13" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C135" s="14"/>
       <c r="D135" s="14"/>
@@ -3248,7 +3307,7 @@
     </row>
     <row r="136" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B136" s="13" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C136" s="14"/>
       <c r="D136" s="14"/>
@@ -3256,7 +3315,7 @@
       <c r="F136" s="14"/>
       <c r="G136" s="15"/>
       <c r="M136" s="13" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N136" s="14"/>
       <c r="O136" s="14"/>
@@ -3267,7 +3326,7 @@
     </row>
     <row r="137" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B137" s="13" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C137" s="14"/>
       <c r="D137" s="14"/>
@@ -3275,7 +3334,7 @@
       <c r="F137" s="14"/>
       <c r="G137" s="15"/>
       <c r="M137" s="13" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="N137" s="14"/>
       <c r="O137" s="14"/>
@@ -3286,7 +3345,7 @@
     </row>
     <row r="138" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B138" s="13" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C138" s="14"/>
       <c r="D138" s="14"/>
@@ -3305,7 +3364,7 @@
     </row>
     <row r="139" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B139" s="13" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C139" s="14"/>
       <c r="D139" s="14"/>
@@ -3313,7 +3372,7 @@
       <c r="F139" s="14"/>
       <c r="G139" s="15"/>
       <c r="M139" s="13" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="N139" s="14"/>
       <c r="O139" s="14"/>
@@ -3324,7 +3383,7 @@
     </row>
     <row r="140" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B140" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C140" s="14"/>
       <c r="D140" s="14"/>
@@ -3332,7 +3391,7 @@
       <c r="F140" s="14"/>
       <c r="G140" s="15"/>
       <c r="M140" s="13" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="N140" s="14"/>
       <c r="O140" s="14"/>
@@ -3343,7 +3402,7 @@
     </row>
     <row r="141" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B141" s="19" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
@@ -3360,7 +3419,7 @@
     </row>
     <row r="142" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B142" s="19" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C142" s="20"/>
       <c r="D142" s="20"/>
@@ -3368,7 +3427,7 @@
       <c r="F142" s="20"/>
       <c r="G142" s="21"/>
       <c r="M142" s="19" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N142" s="20"/>
       <c r="O142" s="20"/>
@@ -3379,7 +3438,7 @@
     </row>
     <row r="143" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B143" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C143" s="20"/>
       <c r="D143" s="20"/>
@@ -3387,7 +3446,7 @@
       <c r="F143" s="20"/>
       <c r="G143" s="21"/>
       <c r="M143" s="19" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="N143" s="20"/>
       <c r="O143" s="20"/>
@@ -3406,7 +3465,7 @@
       <c r="F144" s="20"/>
       <c r="G144" s="21"/>
       <c r="M144" s="19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="N144" s="20"/>
       <c r="O144" s="20"/>
@@ -3432,7 +3491,7 @@
     </row>
     <row r="146" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B146" s="5" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -3440,7 +3499,7 @@
       <c r="F146" s="6"/>
       <c r="G146" s="7"/>
       <c r="M146" s="22" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="N146" s="23"/>
       <c r="O146" s="23"/>
@@ -3451,7 +3510,7 @@
     </row>
     <row r="147" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B147" s="22" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C147" s="23"/>
       <c r="D147" s="23"/>
@@ -3459,7 +3518,7 @@
       <c r="F147" s="23"/>
       <c r="G147" s="24"/>
       <c r="M147" s="22" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="N147" s="23"/>
       <c r="O147" s="23"/>
@@ -3470,7 +3529,7 @@
     </row>
     <row r="148" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B148" s="22" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C148" s="23"/>
       <c r="D148" s="23"/>
@@ -3478,7 +3537,7 @@
       <c r="F148" s="23"/>
       <c r="G148" s="24"/>
       <c r="M148" s="22" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="N148" s="23"/>
       <c r="O148" s="23"/>
@@ -3489,7 +3548,7 @@
     </row>
     <row r="149" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B149" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C149" s="23"/>
       <c r="D149" s="23"/>
@@ -3497,7 +3556,7 @@
       <c r="F149" s="23"/>
       <c r="G149" s="24"/>
       <c r="M149" s="16" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="N149" s="17"/>
       <c r="O149" s="17"/>
@@ -3508,7 +3567,7 @@
     </row>
     <row r="150" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B150" s="16" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C150" s="17"/>
       <c r="D150" s="17"/>
@@ -3516,7 +3575,7 @@
       <c r="F150" s="17"/>
       <c r="G150" s="18"/>
       <c r="M150" s="16" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="N150" s="17"/>
       <c r="O150" s="17"/>
@@ -3527,7 +3586,7 @@
     </row>
     <row r="151" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B151" s="16" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
@@ -3535,7 +3594,7 @@
       <c r="F151" s="17"/>
       <c r="G151" s="18"/>
       <c r="M151" s="16" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="N151" s="17"/>
       <c r="O151" s="17"/>
@@ -3546,7 +3605,7 @@
     </row>
     <row r="152" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B152" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C152" s="17"/>
       <c r="D152" s="17"/>
@@ -3582,7 +3641,7 @@
     </row>
     <row r="154" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B154" s="5" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -3631,32 +3690,32 @@
     <row r="159" spans="2:19" s="25" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="160" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B163" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B164" s="1" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B165" s="1" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B167" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -3672,7 +3731,7 @@
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B169" s="5" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
@@ -3681,7 +3740,7 @@
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170" s="5" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
@@ -3690,7 +3749,7 @@
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -3699,7 +3758,7 @@
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B172" s="5" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
@@ -3717,7 +3776,7 @@
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B174" s="5" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
@@ -3733,7 +3792,7 @@
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B176" s="5" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
@@ -3751,7 +3810,7 @@
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B180" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -3787,7 +3846,7 @@
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B185" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.2">
@@ -3799,7 +3858,7 @@
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B188" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
@@ -3808,7 +3867,7 @@
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B189" s="5" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
@@ -3817,7 +3876,7 @@
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B190" s="5" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
@@ -3826,7 +3885,7 @@
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B191" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
@@ -3835,7 +3894,7 @@
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B192" s="5" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
@@ -3853,7 +3912,7 @@
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B194" s="5" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
@@ -3862,7 +3921,7 @@
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B195" s="5" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
@@ -3880,17 +3939,17 @@
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B197" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B198" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B200" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -3926,32 +3985,32 @@
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B205" s="1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B206" s="1" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B207" s="1" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B208" s="1" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B211" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B213" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -3967,7 +4026,7 @@
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B215" s="5" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
@@ -3976,7 +4035,7 @@
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B216" s="5" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
@@ -3985,7 +4044,7 @@
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B217" s="5" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
@@ -4010,7 +4069,7 @@
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B220" s="5" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
@@ -4026,7 +4085,7 @@
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B222" s="5" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
@@ -4044,17 +4103,17 @@
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B224" s="1" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B225" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B227" s="32" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C227" s="33"/>
       <c r="D227" s="33"/>
@@ -4063,27 +4122,27 @@
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B228" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B229" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B230" s="1" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B231" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B233" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -4099,7 +4158,7 @@
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B235" s="5" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
@@ -4108,7 +4167,7 @@
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B236" s="5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
@@ -4117,7 +4176,7 @@
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B237" s="5" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
@@ -4142,7 +4201,7 @@
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B240" s="5" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
@@ -4158,7 +4217,7 @@
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B242" s="5" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C242" s="6"/>
       <c r="D242" s="6"/>
@@ -4176,7 +4235,7 @@
     </row>
     <row r="244" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B244" s="8" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
@@ -4185,12 +4244,12 @@
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B245" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B246" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.2">
@@ -4204,17 +4263,17 @@
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B250" s="1" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
     </row>
     <row r="251" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B251" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B253" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -4232,7 +4291,7 @@
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B255" s="5" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C255" s="6"/>
       <c r="D255" s="6"/>
@@ -4242,7 +4301,7 @@
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B256" s="5" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C256" s="6"/>
       <c r="D256" s="6"/>
@@ -4252,7 +4311,7 @@
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B257" s="5" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C257" s="6"/>
       <c r="D257" s="6"/>
@@ -4262,7 +4321,7 @@
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B258" s="5" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
@@ -4290,7 +4349,7 @@
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B261" s="5" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
@@ -4308,7 +4367,7 @@
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B263" s="5" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
@@ -4336,7 +4395,12 @@
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B266" s="12" t="s">
-        <v>167</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="268" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B268" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
